--- a/Files_for_testing/Cli_prep_test_files/File_1_file_folder/CLI/Nokia/CLI Execution.xlsx
+++ b/Files_for_testing/Cli_prep_test_files/File_1_file_folder/CLI/Nokia/CLI Execution.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,112 +613,112 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>vpls 9000012</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000012</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>description "PA3420_EPDG_FW01_INTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>description "PA3420_EPDG_FW01_INTERNAL_VPLS"</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>fdb-table-low-wmark 89</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-low-wmark 89</t>
+          <t>fdb-table-high-wmark 90</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-high-wmark 90</t>
+          <t>no service-mtu-check</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>no service-mtu-check</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>sap esat-1/1/15:9000012 create</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>sap esat-1/1/15:9000012 create</t>
+          <t>description "TO_TNX_SAN_PA3420_EPDG_FW01"</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>description "TO_TNX_SAN_PA3420_EPDG_FW01"</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
@@ -732,119 +732,119 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>vpls 9000013</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000013</t>
+          <t>description "PA3430_EPDG_FW02_EXTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>description "PA3430_EPDG_FW02_EXTERNAL_VPLS"</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>fdb-table-low-wmark 89</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>fdb-table-high-wmark 90</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-low-wmark 89</t>
+          <t>no service-mtu-check</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-high-wmark 90</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>no service-mtu-check</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>sap lag-1:9000013 create</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>description "TO_TNX_CHN_SAN_CR05_SR2s_R01"</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>sap lag-1:9000013 create</t>
+          <t>ingress</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>description "TO_TNX_CHN_SAN_CR05_SR2s_R01"</t>
+          <t>qos 40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>ingress</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>qos 40</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
@@ -858,159 +858,131 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>vpls 9000014</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>description "PA3320_EPDG_FW03_EXTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000014</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>description "PA3320_EPDG_FW03_EXTERNAL_VPLS"</t>
+          <t>fdb-table-low-wmark 89</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>fdb-table-high-wmark 90</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no service-mtu-check</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-low-wmark 89</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>fdb-table-high-wmark 90</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>no service-mtu-check</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>sap esat-1/1/15:9000014 create</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>description "TO_TNX_SAN_PA3320_EPDG_FW01"</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>sap esat-1/1/15:9000014 create</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>description "TO_TNX_SAN_PA3320_EPDG_FW01"</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit all</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>no shutdown</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>exit all</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>admin save</t>
         </is>
@@ -1027,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,49 +1069,49 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>tempna</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>mesh-sdp 5: 9000011 create</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>mesh-sdp 5: 9000011 create</t>
+          <t>description "To_HOS-ACIN1"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>description "To_HOS-ACIN1"</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
@@ -1153,105 +1125,105 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>vpls 9000012</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000012</t>
+          <t>description "PA3420_EPDG_FW01_INTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>description "PA3420_EPDG_FW01_INTERNAL_VPLS"</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>tempna</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>sap esat-1/1/15:9000012 create</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>description "TO_TNX_SAN_PA3420_EPDG_FW01"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>egress</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>sap esat-1/1/15:9000012 create</t>
+          <t>qos 30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>description "TO_TNX_SAN_PA3420_EPDG_FW01"</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>egress</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>qos 30</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
@@ -1265,84 +1237,84 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>vpls 9000013</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>description "PA3430_EPDG_FW02_EXTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000013</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>description "PA3430_EPDG_FW02_EXTERNAL_VPLS"</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>sap lag-1:9000013 create</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>tempna</t>
+          <t>description "TO_TNX_CHN_SAN_CR05_SR2s_R01"</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>ingress</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>qos 40</t>
         </is>
       </c>
     </row>
@@ -1356,180 +1328,124 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>sap lag-1:9000013 create</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>description "TO_TNX_CHN_SAN_CR05_SR2s_R01"</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>ingress</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>qos 40</t>
+          <t>vpls 9000014</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no description</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>description "PA3320_EPDG_FW03_EXTERNAL_VPLS"</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>allow-ip-int-bind</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>no shutdown</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>stp</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>vpls 9000014</t>
+          <t>shutdown</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>no description</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>description "PA3320_EPDG_FW03_EXTERNAL_VPLS"</t>
+          <t>mesh-sdp 129:9000014 create</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>allow-ip-int-bind</t>
+          <t>description "To_HOS-ACIN3"</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>no shutdown</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>tempna</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>stp</t>
+          <t>exit</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>shutdown</t>
+          <t>exit all</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>mesh-sdp 129:9000014 create</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>description "To_HOS-ACIN3"</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>no shutdown</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>no shutdown</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>exit all</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>admin save</t>
         </is>
